--- a/docs/upload_file.xlsx
+++ b/docs/upload_file.xlsx
@@ -32,15 +32,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人数</t>
+    <t>比例(%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>累计人数</t>
+    <t>累计人数_2019</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>比例(%)</t>
+    <t>人_数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,7 +379,7 @@
   <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:O20"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -392,13 +392,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
